--- a/Manual Testing.xlsx
+++ b/Manual Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnab\USA Batch\Batch 142\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A48A3BE-4FD1-4CFA-88C3-629115FC561A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2D731A-CB1F-411A-A053-EA0B493B9C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{216DEEE7-AF33-463E-B6A4-29AF6FD286C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Project Name:</t>
   </si>
@@ -180,7 +180,36 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>8-07-202</t>
+    <t>TC-ERP-Login-003</t>
+  </si>
+  <si>
+    <t>Enter an invalid username and a valid password</t>
+  </si>
+  <si>
+    <t>1. Enter an invalid username
+2. Enter a valid password
+3. Click on login button</t>
+  </si>
+  <si>
+    <t>Tester_TLD002</t>
+  </si>
+  <si>
+    <t>TC-ERP-Login-004</t>
+  </si>
+  <si>
+    <t>Enter an invalid username and ainvalid password</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username
+2. Enter invalid password
+3. Click on login button</t>
+  </si>
+  <si>
+    <t>Username: xxxxxx@erp.com Password: P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Username: xxxxxx@erp.com
+Password: xxxxxx</t>
   </si>
 </sst>
 </file>
@@ -191,7 +220,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="ddd\,/d/mmmm\,/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +244,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -236,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -248,6 +283,21 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -317,6 +367,192 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -325,41 +561,97 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6A21B-131C-4BAF-9B93-E5573F862EA2}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,99 +1040,100 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="28">
         <v>44748</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -873,44 +1166,100 @@
       <c r="L11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="29">
+        <v>44750</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="D12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="29">
+        <v>44751</v>
+      </c>
+      <c r="N12" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="12"/>
+    <row r="13" spans="1:14" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="30">
+        <v>44751</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
